--- a/data/trans_camb/P1802_2016_2023-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P1802_2016_2023-Clase-trans_camb.xlsx
@@ -564,10 +564,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.3593319596766148</v>
+        <v>0.3593319596766176</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>6.842436686025105</v>
+        <v>6.842436686025108</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>3.395534359785993</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.373411765258817</v>
+        <v>-5.038768913195143</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.593964915186367</v>
+        <v>1.823627050880608</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.2370325359191222</v>
+        <v>-0.05416128561927141</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.960114784019375</v>
+        <v>5.271860986920021</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>11.81936779982846</v>
+        <v>11.42535558896444</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.94664938774915</v>
+        <v>7.060110857382747</v>
       </c>
     </row>
     <row r="7">
@@ -615,10 +615,10 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>0.02243894256614541</v>
+        <v>0.02243894256614558</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.441369931509865</v>
+        <v>0.4413699315098652</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>0.2151080085352904</v>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.2392894442495625</v>
+        <v>-0.2610609108761163</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.06441560882011593</v>
+        <v>0.1086392860073079</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.01281477332826283</v>
+        <v>-0.00604654962111376</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.3710793826503608</v>
+        <v>0.3943536571851126</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.9183837239789677</v>
+        <v>0.9131450872412793</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.5092666170541329</v>
+        <v>0.5067168927963468</v>
       </c>
     </row>
     <row r="10">
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>2.851012697861742</v>
+        <v>2.851012697861739</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>2.861955497327235</v>
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.852504108958037</v>
+        <v>-2.271830819027018</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.513118631860001</v>
+        <v>-1.931370746776998</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.9993414860286295</v>
+        <v>-0.8815786235616149</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.915857807788511</v>
+        <v>7.710537259085437</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.906421421346888</v>
+        <v>8.203162327139566</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.073326550441497</v>
+        <v>6.540634604732297</v>
       </c>
     </row>
     <row r="13">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="C13" s="6" t="n">
-        <v>0.2290248352444142</v>
+        <v>0.2290248352444139</v>
       </c>
       <c r="D13" s="6" t="n">
         <v>0.1648391652946476</v>
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1360655508633397</v>
+        <v>-0.159696730852856</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1166178780151151</v>
+        <v>-0.09846723521323901</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.0513718803862894</v>
+        <v>-0.05242289058229916</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.7731855859833628</v>
+        <v>0.7966149978345819</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.5703512755827101</v>
+        <v>0.5942729176285848</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.4909297789015109</v>
+        <v>0.5184251566780956</v>
       </c>
     </row>
     <row r="16">
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>-0.225056918169142</v>
+        <v>-0.2250569181691475</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>-3.03821134991604</v>
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-5.056995348470384</v>
+        <v>-4.946774307166788</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-11.80648537651146</v>
+        <v>-11.36944765299062</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-4.258270114390028</v>
+        <v>-4.866711092357944</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.084200677817283</v>
+        <v>4.150953982458285</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.637230925178984</v>
+        <v>5.693888912030709</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.629287817839077</v>
+        <v>3.261293479152227</v>
       </c>
     </row>
     <row r="19">
@@ -827,7 +827,7 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>-0.01457197606012393</v>
+        <v>-0.01457197606012428</v>
       </c>
       <c r="D19" s="6" t="n">
         <v>-0.1238721238847414</v>
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2821737089882088</v>
+        <v>-0.27582471217054</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3975334784318396</v>
+        <v>-0.3828859570218122</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.2163738060744196</v>
+        <v>-0.2440085401910077</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.3867391479174264</v>
+        <v>0.2966340937455935</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.3011821389479256</v>
+        <v>0.2984722237561437</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.238737441312622</v>
+        <v>0.2100288531540125</v>
       </c>
     </row>
     <row r="22">
@@ -885,7 +885,7 @@
         <v>1.84768452915246</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>2.105542463486545</v>
+        <v>2.105542463486543</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>2.013019842888911</v>
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.430070211774994</v>
+        <v>-1.582109347604291</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.479873604278655</v>
+        <v>-1.675636852830451</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.4347989427785232</v>
+        <v>-0.3497467086036252</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.941031112629428</v>
+        <v>5.046177169572438</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.722383676661781</v>
+        <v>5.895244428348382</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.502792993404976</v>
+        <v>4.369231487586368</v>
       </c>
     </row>
     <row r="25">
@@ -936,7 +936,7 @@
         <v>0.1203130085286027</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>0.1093523500239102</v>
+        <v>0.1093523500239101</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>0.1185061795792877</v>
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.08205382305303528</v>
+        <v>-0.09450770359596072</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.06763795393026677</v>
+        <v>-0.07727652306380536</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.02416004967984061</v>
+        <v>-0.01855426339106228</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.3614977850143242</v>
+        <v>0.3574771152299354</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.3332153122986077</v>
+        <v>0.3448348824510489</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.281686503792511</v>
+        <v>0.2824460172018365</v>
       </c>
     </row>
     <row r="28">
@@ -988,13 +988,13 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>0.3622333271938727</v>
+        <v>0.3622333271938671</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>-0.6037804958988147</v>
+        <v>-0.6037804958988091</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.04078530303067707</v>
+        <v>0.04078530303067429</v>
       </c>
     </row>
     <row r="29">
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-3.531015193758192</v>
+        <v>-3.638118805073346</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-4.180998308635356</v>
+        <v>-4.252798353084844</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-2.451770376684753</v>
+        <v>-2.651279951520217</v>
       </c>
     </row>
     <row r="30">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.538132860371888</v>
+        <v>4.41606582172951</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.940310405287637</v>
+        <v>3.068167231000605</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.977565555304869</v>
+        <v>2.644046780088894</v>
       </c>
     </row>
     <row r="31">
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>0.02602596602255663</v>
+        <v>0.02602596602255623</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>-0.03195788318790985</v>
+        <v>-0.03195788318790956</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.002453882853764179</v>
+        <v>0.002453882853764012</v>
       </c>
     </row>
     <row r="32">
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.2240284203120303</v>
+        <v>-0.2315052088461329</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.1955753591371968</v>
+        <v>-0.2003941007046289</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.1407783948339069</v>
+        <v>-0.1440838970408847</v>
       </c>
     </row>
     <row r="33">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.3628423762475139</v>
+        <v>0.3656591548774717</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.1693824226824908</v>
+        <v>0.1860755537780489</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.1978493061393224</v>
+        <v>0.1760632367553418</v>
       </c>
     </row>
     <row r="34">
@@ -1097,10 +1097,10 @@
         <v>-5.619549471937576</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>-5.871007698301023</v>
+        <v>-5.87100769830102</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>-5.910252082899693</v>
+        <v>-5.910252082899692</v>
       </c>
     </row>
     <row r="35">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-10.26160379414222</v>
+        <v>-10.13657134788347</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-8.988079768421015</v>
+        <v>-8.928770616320431</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-8.568225923197497</v>
+        <v>-8.508664378498558</v>
       </c>
     </row>
     <row r="36">
@@ -1128,13 +1128,13 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>-0.09261033478917766</v>
+        <v>-0.4603318093544357</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>-2.341121217881703</v>
+        <v>-2.411703794085335</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-3.190814632694672</v>
+        <v>-2.911465627568194</v>
       </c>
     </row>
     <row r="37">
@@ -1148,7 +1148,7 @@
         <v>-0.5685358696274058</v>
       </c>
       <c r="D37" s="6" t="n">
-        <v>-0.300240789522721</v>
+        <v>-0.3002407895227209</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>-0.3372218733643415</v>
@@ -1162,13 +1162,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.8383397004834284</v>
+        <v>-0.8326827380696766</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.4200036641071989</v>
+        <v>-0.4215754276566359</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.4558071953116965</v>
+        <v>-0.453804932194095</v>
       </c>
     </row>
     <row r="39">
@@ -1179,13 +1179,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.04863723848554028</v>
+        <v>-0.004317396045380683</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>-0.1323471087150411</v>
+        <v>-0.1399394602330322</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.1925420161002508</v>
+        <v>-0.1908763686825718</v>
       </c>
     </row>
     <row r="40">
@@ -1206,7 +1206,7 @@
         <v>-0.06925661746166878</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>0.3455428964450225</v>
+        <v>0.3455428964450252</v>
       </c>
     </row>
     <row r="41">
@@ -1217,13 +1217,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-1.016319313466735</v>
+        <v>-0.9624746864499739</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-1.860878494895368</v>
+        <v>-1.842001120940124</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-0.9214805264679854</v>
+        <v>-0.830075909268705</v>
       </c>
     </row>
     <row r="42">
@@ -1234,13 +1234,13 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>2.530502038530873</v>
+        <v>2.586617262120022</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>1.562243812133585</v>
+        <v>1.754210036519562</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1.789200489863924</v>
+        <v>1.623604680657738</v>
       </c>
     </row>
     <row r="43">
@@ -1257,7 +1257,7 @@
         <v>-0.003654572750698265</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>0.02066122557419833</v>
+        <v>0.02066122557419849</v>
       </c>
     </row>
     <row r="44">
@@ -1268,13 +1268,13 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.0693166525268009</v>
+        <v>-0.06410681268018055</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.09136917569728799</v>
+        <v>-0.09226935442741929</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.05307175726527328</v>
+        <v>-0.04780837183675572</v>
       </c>
     </row>
     <row r="45">
@@ -1285,13 +1285,13 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.1868675548457083</v>
+        <v>0.1909210817029343</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.08721487147376121</v>
+        <v>0.09728453337845852</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.1115097385739303</v>
+        <v>0.1017235110358136</v>
       </c>
     </row>
     <row r="46">
